--- a/bitget_project/manage/0915/업데이트목록.xlsx
+++ b/bitget_project/manage/0915/업데이트목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdonn\Documents\GitHub\mandleda\bitget_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149E6C3C-ECEB-42F7-A9EC-7D2F8B07AE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88949485-1808-4256-AFA4-D054B98B24E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="2700" windowWidth="21180" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="136">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -674,6 +674,38 @@
   </si>
   <si>
     <t xml:space="preserve">손절 등 후 state '대기'로 변환 후 다음 if문에서 int(state[0]) 하면서 int('대') 로 형변화 오류, continue로 for문 탈출하면서 해결 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">서버 동작 확인 스레드, 변수 추가 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>running</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyThread의 timesleep(CLIENT_REFRESH_RATE) 위치를 아래로 내림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6초 이하는 이상,정상을 왔다갔다함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1초 이상은 안정적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300초동안 시작하자마자 동작 안함을 방지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월15일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 동작 확인 레이블 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -820,10 +852,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1417,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D162" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H190" sqref="H190"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G193" sqref="G193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1458,15 +1490,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
@@ -2082,6 +2114,9 @@
       <c r="E183" t="s">
         <v>114</v>
       </c>
+      <c r="F183" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="G183" t="s">
         <v>115</v>
       </c>
@@ -2090,6 +2125,9 @@
       <c r="E184" t="s">
         <v>116</v>
       </c>
+      <c r="F184" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="G184" s="3" t="s">
         <v>117</v>
       </c>
@@ -2098,6 +2136,9 @@
       <c r="E185" t="s">
         <v>118</v>
       </c>
+      <c r="F185" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="G185" t="s">
         <v>119</v>
       </c>
@@ -2106,7 +2147,10 @@
       <c r="E186" t="s">
         <v>120</v>
       </c>
-      <c r="G186" s="9" t="s">
+      <c r="F186" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G186" s="8" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2114,6 +2158,9 @@
       <c r="E187" t="s">
         <v>122</v>
       </c>
+      <c r="F187" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="G187" t="s">
         <v>123</v>
       </c>
@@ -2122,6 +2169,9 @@
       <c r="E188" t="s">
         <v>124</v>
       </c>
+      <c r="F188" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="G188" t="s">
         <v>125</v>
       </c>
@@ -2130,8 +2180,52 @@
       <c r="E189" t="s">
         <v>126</v>
       </c>
+      <c r="F189" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="G189" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="190" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E190" t="s">
+        <v>128</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G190" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="191" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E191" t="s">
+        <v>131</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G191" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="192" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E192" t="s">
+        <v>130</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G192" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="193" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E193" t="s">
+        <v>135</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
